--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,25 +528,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H2">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I2">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J2">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.451301666666667</v>
+        <v>1.952294</v>
       </c>
       <c r="N2">
-        <v>7.353905</v>
+        <v>5.856882</v>
       </c>
       <c r="O2">
-        <v>0.1099648918267336</v>
+        <v>0.07575070565202183</v>
       </c>
       <c r="P2">
-        <v>0.1099648918267337</v>
+        <v>0.07575070565202184</v>
       </c>
       <c r="Q2">
-        <v>11.84557212193333</v>
+        <v>0.1313841800826667</v>
       </c>
       <c r="R2">
-        <v>106.6101490974</v>
+        <v>1.182457620744</v>
       </c>
       <c r="S2">
-        <v>0.1072543467024688</v>
+        <v>0.001040444288586848</v>
       </c>
       <c r="T2">
-        <v>0.1072543467024688</v>
+        <v>0.001040444288586848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H3">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I3">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J3">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.911918</v>
       </c>
       <c r="O3">
-        <v>0.6566265559283671</v>
+        <v>0.5679402069281436</v>
       </c>
       <c r="P3">
-        <v>0.6566265559283672</v>
+        <v>0.5679402069281437</v>
       </c>
       <c r="Q3">
-        <v>70.73273202215999</v>
+        <v>0.9850516609840001</v>
       </c>
       <c r="R3">
-        <v>636.59458819944</v>
+        <v>8.865464948855999</v>
       </c>
       <c r="S3">
-        <v>0.6404412455073027</v>
+        <v>0.007800721319636283</v>
       </c>
       <c r="T3">
-        <v>0.6404412455073029</v>
+        <v>0.007800721319636283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H4">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I4">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J4">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.177582333333334</v>
+        <v>9.009963000000001</v>
       </c>
       <c r="N4">
-        <v>15.532747</v>
+        <v>27.029889</v>
       </c>
       <c r="O4">
-        <v>0.2322652853996647</v>
+        <v>0.3495944028658632</v>
       </c>
       <c r="P4">
-        <v>0.2322652853996648</v>
+        <v>0.3495944028658634</v>
       </c>
       <c r="Q4">
-        <v>25.01994176430667</v>
+        <v>0.606346483332</v>
       </c>
       <c r="R4">
-        <v>225.17947587876</v>
+        <v>5.457118349988001</v>
       </c>
       <c r="S4">
-        <v>0.2265401350683389</v>
+        <v>0.004801717642798071</v>
       </c>
       <c r="T4">
-        <v>0.2265401350683389</v>
+        <v>0.004801717642798073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H5">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I5">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J5">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02548533333333333</v>
+        <v>0.173055</v>
       </c>
       <c r="N5">
-        <v>0.076456</v>
+        <v>0.519165</v>
       </c>
       <c r="O5">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971194</v>
       </c>
       <c r="P5">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971196</v>
       </c>
       <c r="Q5">
-        <v>0.1231543053866666</v>
+        <v>0.01164614002</v>
       </c>
       <c r="R5">
-        <v>1.10838874848</v>
+        <v>0.10481526018</v>
       </c>
       <c r="S5">
-        <v>0.001115086247576486</v>
+        <v>9.222693219432979E-05</v>
       </c>
       <c r="T5">
-        <v>0.001115086247576486</v>
+        <v>9.222693219432981E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H6">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I6">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J6">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.451301666666667</v>
+        <v>1.952294</v>
       </c>
       <c r="N6">
-        <v>7.353905</v>
+        <v>5.856882</v>
       </c>
       <c r="O6">
-        <v>0.1099648918267336</v>
+        <v>0.07575070565202183</v>
       </c>
       <c r="P6">
-        <v>0.1099648918267337</v>
+        <v>0.07575070565202184</v>
       </c>
       <c r="Q6">
-        <v>0.29936276474</v>
+        <v>9.43418743384</v>
       </c>
       <c r="R6">
-        <v>2.69426488266</v>
+        <v>84.90768690455999</v>
       </c>
       <c r="S6">
-        <v>0.002710545124264811</v>
+        <v>0.07471026136343498</v>
       </c>
       <c r="T6">
-        <v>0.002710545124264812</v>
+        <v>0.07471026136343499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H7">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I7">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J7">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>43.911918</v>
       </c>
       <c r="O7">
-        <v>0.6566265559283671</v>
+        <v>0.5679402069281436</v>
       </c>
       <c r="P7">
-        <v>0.6566265559283672</v>
+        <v>0.5679402069281437</v>
       </c>
       <c r="Q7">
-        <v>1.787566357944</v>
+        <v>70.73273202216001</v>
       </c>
       <c r="R7">
-        <v>16.088097221496</v>
+        <v>636.5945881994401</v>
       </c>
       <c r="S7">
-        <v>0.01618531042106421</v>
+        <v>0.5601394856085073</v>
       </c>
       <c r="T7">
-        <v>0.01618531042106422</v>
+        <v>0.5601394856085075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H8">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I8">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J8">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.177582333333334</v>
+        <v>9.009963000000001</v>
       </c>
       <c r="N8">
-        <v>15.532747</v>
+        <v>27.029889</v>
       </c>
       <c r="O8">
-        <v>0.2322652853996647</v>
+        <v>0.3495944028658632</v>
       </c>
       <c r="P8">
-        <v>0.2322652853996648</v>
+        <v>0.3495944028658634</v>
       </c>
       <c r="Q8">
-        <v>0.632307064876</v>
+        <v>43.53938480268001</v>
       </c>
       <c r="R8">
-        <v>5.690763583883999</v>
+        <v>391.8544632241201</v>
       </c>
       <c r="S8">
-        <v>0.005725150331325857</v>
+        <v>0.3447926852230652</v>
       </c>
       <c r="T8">
-        <v>0.005725150331325858</v>
+        <v>0.3447926852230653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>25</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.83236</v>
+      </c>
+      <c r="H9">
+        <v>14.49708</v>
+      </c>
+      <c r="I9">
+        <v>0.9862648898167845</v>
+      </c>
+      <c r="J9">
+        <v>0.9862648898167844</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.122124</v>
-      </c>
-      <c r="H9">
-        <v>0.366372</v>
-      </c>
-      <c r="I9">
-        <v>0.02464918647431296</v>
-      </c>
-      <c r="J9">
-        <v>0.02464918647431297</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.02548533333333333</v>
+        <v>0.173055</v>
       </c>
       <c r="N9">
-        <v>0.076456</v>
+        <v>0.519165</v>
       </c>
       <c r="O9">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971194</v>
       </c>
       <c r="P9">
-        <v>0.001143266845234572</v>
+        <v>0.006714684553971196</v>
       </c>
       <c r="Q9">
-        <v>0.003112370848</v>
+        <v>0.8362640598</v>
       </c>
       <c r="R9">
-        <v>0.028011337632</v>
+        <v>7.5263765382</v>
       </c>
       <c r="S9">
-        <v>2.818059765808647E-05</v>
+        <v>0.006622457621776864</v>
       </c>
       <c r="T9">
-        <v>2.818059765808648E-05</v>
+        <v>0.006622457621776865</v>
       </c>
     </row>
   </sheetData>
